--- a/APM files/141027851/141027851 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/141027851/141027851 IMPORT Stop Sell Removal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141027851/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F4DB54-B17D-014B-A689-7963B9634281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B6E51-4AC9-6144-A87A-A3429C69669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -424,7 +424,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>117681530</v>
+        <v>117681523</v>
       </c>
       <c r="B2">
         <v>141027851</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>117681539</v>
+        <v>117681543</v>
       </c>
       <c r="B3">
         <v>141027851</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>117681527</v>
+        <v>117681536</v>
       </c>
       <c r="B4">
         <v>141027851</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>117681528</v>
+        <v>117681535</v>
       </c>
       <c r="B5">
         <v>141027851</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>117680997</v>
+        <v>117681544</v>
       </c>
       <c r="B6">
         <v>141027851</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>117681524</v>
+        <v>117681520</v>
       </c>
       <c r="B7">
         <v>141027851</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>117681538</v>
+        <v>117681521</v>
       </c>
       <c r="B8">
         <v>141027851</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>117681542</v>
+        <v>117681532</v>
       </c>
       <c r="B9">
         <v>141027851</v>
@@ -531,118 +531,6 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>117681526</v>
-      </c>
-      <c r="B10">
-        <v>141027851</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>117681537</v>
-      </c>
-      <c r="B11">
-        <v>141027851</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>117681541</v>
-      </c>
-      <c r="B12">
-        <v>141027851</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>117681525</v>
-      </c>
-      <c r="B13">
-        <v>141027851</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>117681545</v>
-      </c>
-      <c r="B14">
-        <v>141027851</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>117681519</v>
-      </c>
-      <c r="B15">
-        <v>141027851</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>117681547</v>
-      </c>
-      <c r="B16">
-        <v>141027851</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>117681533</v>
-      </c>
-      <c r="B17">
-        <v>141027851</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>

--- a/APM files/141027851/141027851 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/141027851/141027851 IMPORT Stop Sell Removal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141027851/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B6E51-4AC9-6144-A87A-A3429C69669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748FB352-D45F-274C-9E79-2C09C81FC411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,11 +402,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
